--- a/biology/Médecine/Michael_Brown_(médecin)/Michael_Brown_(médecin).xlsx
+++ b/biology/Médecine/Michael_Brown_(médecin)/Michael_Brown_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michael_Brown_(m%C3%A9decin)</t>
+          <t>Michael_Brown_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Stuart Brown, né le 13 avril 1941 à Brooklyn (New York), est un médecin américain, prix Nobel de physiologie ou médecine en 1985 avec Joseph Goldstein pour leurs travaux sur la génétique et l'enzymologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michael_Brown_(m%C3%A9decin)</t>
+          <t>Michael_Brown_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils aîné d'Harvey Brown, un vendeur textile et Evelyn Brown, une ménagère. Sa sœur Susan est née trois ans plus tard. Quand Michel Brown avait 11 ans la famille déménagea à Elkins Parks, en Pennsylvanie, en banlieue de Philadelphie, où Brown fit sa scolarité au lycée Cheltenham. Fasciné par les sciences, il obtient sa licence de radioamateur dès 13 ans. En même temps, il prend aussi goût au journalisme. Ces deux passions, science et écriture, sont restés essentielles pour Michel Brown, aujourd'hui encore.
 Michel Brown obtient son diplôme de chimie en 1962 de l'École des beaux-arts et des sciences de l'université de Pennsylvanie. Il a passé la plupart de son temps au quartier général du journal d'étudiant, le Pennsylvanian Quotidien, comme rédacteur des faits divers et brièvement comme le rédacteur en chef.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michael_Brown_(m%C3%A9decin)</t>
+          <t>Michael_Brown_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michel Brown a reçu plusieurs récompenses d'étudiant à l'université de Pennsylvanie, y compris un proctor et la Bourse de jeu (1958-1962), le prix David L. Drabkin en biochimie (1962) et le prix Frederick L. Packard en médecine interne (1966).
 Il a reçu aussi le titre de docteur honoris causa de l'université de Chicago (1982), de l'Institut polytechnique Rensselaer (1982) et de l'université de Miami (1996).
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michael_Brown_(m%C3%A9decin)</t>
+          <t>Michael_Brown_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brown et Goldstein ont assuré ensemble les cours suivants :
 Harvey Lecture (1977) ;
